--- a/Actiam/Actiam.xlsx
+++ b/Actiam/Actiam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsen/KeuzeWelkIndexFonds/OnderzoekPerFonds/Actiam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Actiam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="582" documentId="13_ncr:1_{09A8CA3B-498C-48C2-9132-9CBE0DB7D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F825F2C7-90E9-4103-B96E-E60A677610F5}"/>
+  <xr:revisionPtr revIDLastSave="692" documentId="13_ncr:1_{09A8CA3B-498C-48C2-9132-9CBE0DB7D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7E79FAA-6218-48ED-9B62-831FAECBC4DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30465" yWindow="2325" windowWidth="17220" windowHeight="15555" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <author>Gerben</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7C986E11-419B-48AA-B590-B9AF84C46439}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{7C986E11-419B-48AA-B590-B9AF84C46439}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{BF0A2CBB-802D-4613-9CB4-5036A6B4F24E}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{BF0A2CBB-802D-4613-9CB4-5036A6B4F24E}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>TD</t>
   </si>
@@ -235,12 +235,6 @@
     <t>EM</t>
   </si>
   <si>
-    <t>Actiam totaal</t>
-  </si>
-  <si>
-    <t>Vermogen</t>
-  </si>
-  <si>
     <t>Actiam wereld</t>
   </si>
   <si>
@@ -265,13 +259,15 @@
     <t>Verschil</t>
   </si>
   <si>
-    <t>2016-2019</t>
-  </si>
-  <si>
-    <t>Transactie</t>
-  </si>
-  <si>
-    <t>Avg 2016-2019</t>
+    <t>Per 31 december 2021 zaten er 1273 bedrijven in de beleggingsportefeuille van de Onderliggende
+Beleggingsinstelling van het Fonds. Per 31 december 2021 vielen 259 bedrijven buiten het beleggingsuniversum,
+deze ‘uitsluitingen’ hadden een gewicht van 16,7% in de Index ten opzichte van 19,1% ultimo 2020.</t>
+  </si>
+  <si>
+    <t>Vermogen Wereld</t>
+  </si>
+  <si>
+    <t>Transactiekosten % 2021</t>
   </si>
 </sst>
 </file>
@@ -712,9 +708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
-  <dimension ref="B1:H30"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -744,11 +742,11 @@
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -756,23 +754,23 @@
         <v>21</v>
       </c>
       <c r="C3" s="4">
-        <v>0.192</v>
+        <v>0.182</v>
       </c>
       <c r="D3" s="3">
-        <f>Europa!J10</f>
-        <v>7.4883538758337218E-4</v>
+        <f>Europa!K10</f>
+        <v>7.2370918980728882E-4</v>
       </c>
       <c r="E3" s="4">
         <f>C3*D3</f>
-        <v>1.4377639441600745E-4</v>
+        <v>1.3171507254492655E-4</v>
       </c>
       <c r="G3" s="25">
-        <f>Europa!K10</f>
-        <v>6.6014424040872297E-4</v>
+        <f>Europa!I10</f>
+        <v>5.9807820092687197E-4</v>
       </c>
       <c r="H3" s="4">
         <f>C3*G3</f>
-        <v>1.2674769415847481E-4</v>
+        <v>1.0885023256869069E-4</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -780,23 +778,23 @@
         <v>22</v>
       </c>
       <c r="C4" s="4">
-        <v>0.69299999999999995</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="D4" s="3">
-        <f>US!J10</f>
-        <v>2.27594357425821E-4</v>
+        <f>US!K10</f>
+        <v>1.9985426498495031E-4</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E5" si="0">C4*D4</f>
-        <v>1.5772288969609393E-4</v>
+        <v>1.4469448784910403E-4</v>
       </c>
       <c r="G4" s="25">
-        <f>US!K10</f>
-        <v>2.3809704238143307E-4</v>
+        <f>US!I10</f>
+        <v>6.1153802780597046E-5</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H5" si="1">C4*G4</f>
-        <v>1.650012503703331E-4</v>
+        <v>4.4275353213152261E-5</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -804,23 +802,23 @@
         <v>23</v>
       </c>
       <c r="C5" s="4">
-        <v>0.115</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D5" s="3">
-        <f>Pacific!J10</f>
+        <f>Pacific!K10</f>
         <v>1.9897409553153427E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>2.2882020986126444E-5</v>
+        <v>1.8703564979964221E-5</v>
       </c>
       <c r="G5" s="25">
-        <f>Pacific!K10</f>
-        <v>2.0325400536295199E-4</v>
+        <f>Pacific!I10</f>
+        <v>2.0154775747892575E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>2.3374210616739479E-5</v>
+        <v>1.8945489203019022E-5</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -829,11 +827,11 @@
       <c r="D6" s="4"/>
       <c r="E6" s="27">
         <f>SUM(E3:E5)</f>
-        <v>3.2438130509822782E-4</v>
+        <v>2.9511312537399477E-4</v>
       </c>
       <c r="H6" s="27">
         <f>SUM(H3:H5)</f>
-        <v>3.1512315514554739E-4</v>
+        <v>1.7207107498486197E-4</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -854,8 +852,8 @@
         <v>28</v>
       </c>
       <c r="C10" s="3">
-        <f>C9+E6</f>
-        <v>1.1243813050982277E-3</v>
+        <f>C9+H6</f>
+        <v>9.7207107498486199E-4</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -880,9 +878,9 @@
         <v>2.6063939134071089E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -890,72 +888,70 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="19" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+    <row r="22" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="22"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="4">
-        <f>100%-C27</f>
-        <v>0.86978372358820388</v>
-      </c>
-      <c r="D26" s="3">
-        <f>C26*C10</f>
-        <v>9.7796855828130081E-4</v>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="22">
-        <v>0.13021627641179609</v>
-      </c>
-      <c r="D27" s="4">
-        <f>C14*C27</f>
-        <v>3.3939491026624299E-4</v>
+      <c r="B27" s="23">
+        <f>Europa!H6+US!H6+Pacific!H6</f>
+        <v>3994936000</v>
+      </c>
+      <c r="C27">
+        <v>2020</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="3">
-        <f>SUM(D26:D27)</f>
-        <v>1.3173634685475439E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="23">
-        <f>Europa!H6+US!H6+Pacific!H6+EM!F6</f>
-        <v>4398370000</v>
+      <c r="B28" s="23">
+        <f>Europa!I6+US!I6+Pacific!I6</f>
+        <v>2809857000</v>
+      </c>
+      <c r="C28">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -964,20 +960,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DD0CE1-B923-4934-BFFC-058DEB7CF9AB}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="56.140625" customWidth="1"/>
+    <col min="11" max="11" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>2016</v>
@@ -994,14 +992,17 @@
       <c r="G2" s="1">
         <v>2020</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="24" t="s">
+      <c r="H2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,99 +1022,74 @@
         <f>((4.5*0.15%)+(6.5*0.08%))/12</f>
         <v>9.9583333333333338E-4</v>
       </c>
-      <c r="H3" s="4">
-        <f>AVERAGE(C3:G3)</f>
-        <v>1.3991666666666666E-3</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="22">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>AVERAGE(C3:H3)</f>
+        <v>1.2993055555555555E-3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="28">
         <f>MarketCap!E6</f>
-        <v>3.2438130509822782E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2.9511312537399477E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="27">
+        <f>I3+C5</f>
+        <v>1.5944186809295504E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="28">
+        <f>'Tracking Difference'!I9/100</f>
+        <v>1.5333333333333323E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="27">
-        <f>H3+C5</f>
-        <v>1.7235479717648944E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="28">
-        <f>'Tracking Difference'!H9/100</f>
-        <v>1.7200000000000015E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C9" s="27">
         <f>C6-C8</f>
-        <v>3.5479717648929585E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <f>AVERAGE(C3:F3)</f>
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="28">
-        <f>MarketCap!H6</f>
-        <v>3.1512315514554739E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="27">
-        <f>C13+C14</f>
-        <v>1.8151231551455475E-3</v>
-      </c>
+        <v>6.1085347596218087E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="28">
-        <f>AVERAGE('Tracking Difference'!C9:F9)/100</f>
-        <v>2.1750000000000016E-3</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3">
-        <f>C15-C17</f>
-        <v>-3.5987684485445405E-4</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1125,14 +1101,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE67CDC6-C6F3-42EC-8906-DD829414B144}">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="3" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -1146,7 +1123,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="13"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="13"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -1168,12 +1145,12 @@
       <c r="H4" s="1">
         <v>2020</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1196,8 +1173,9 @@
         <v>1786403000</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1223,8 +1201,11 @@
       <c r="H6" s="21">
         <v>1568427000</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="21">
+        <v>1057967000</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -1234,7 +1215,8 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1256,10 +1238,13 @@
       <c r="H8" s="20">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="14">
-        <f>AVERAGE(C8:H8)</f>
-        <v>7.9960000000000003E-2</v>
+      <c r="I8" s="20">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="14">
+        <f>AVERAGE(C8:I8)</f>
+        <v>0.11306666666666669</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1282,42 +1267,45 @@
       <c r="H9" s="6">
         <v>1730916</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="6">
+        <v>632747</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="18">
+      <c r="D10" s="19">
         <f>D9/D6</f>
         <v>8.2693479034225202E-4</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19">
         <f t="shared" ref="E10:H10" si="1">E9/E6</f>
         <v>6.5241097680239122E-4</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="19">
         <f t="shared" si="1"/>
         <v>7.8816076398034989E-4</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
         <v>3.7307043050989876E-4</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="19">
         <f t="shared" si="1"/>
         <v>1.1035999762819691E-3</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="3">
-        <f>AVERAGE(D10:H10)</f>
-        <v>7.4883538758337218E-4</v>
-      </c>
+      <c r="I10" s="19">
+        <f>I9/I6</f>
+        <v>5.9807820092687197E-4</v>
+      </c>
+      <c r="J10" s="18"/>
       <c r="K10" s="3">
-        <f>AVERAGE(D10:G10)</f>
-        <v>6.6014424040872297E-4</v>
+        <f>AVERAGE(D10:I10)</f>
+        <v>7.2370918980728882E-4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1328,7 +1316,8 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
@@ -1338,7 +1327,8 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="18"/>
@@ -1348,7 +1338,8 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
@@ -1358,7 +1349,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
@@ -1374,14 +1366,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A931124E-3DC9-45D5-8818-E0B09A390F1B}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="9" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -1395,7 +1388,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="13"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="13"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -1417,12 +1410,12 @@
       <c r="H4" s="1">
         <v>2020</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1446,7 +1439,8 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1472,8 +1466,11 @@
       <c r="H6" s="21">
         <v>1895205000</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="16">
+        <v>1427679000</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -1483,7 +1480,8 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1505,10 +1503,13 @@
       <c r="H8" s="20">
         <v>0.1794</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="14">
-        <f>AVERAGE(C8:H8)</f>
-        <v>4.9340000000000002E-2</v>
+      <c r="I8" s="20">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="14">
+        <f>AVERAGE(C8:I8)</f>
+        <v>4.6633333333333332E-2</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1533,42 +1534,45 @@
         <f>286810+64909</f>
         <v>351719</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="6">
+        <v>87308</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="18">
+      <c r="D10" s="19">
         <f>D9/D6</f>
         <v>5.7318795374023985E-4</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19">
         <f>E9/E6</f>
         <v>2.0872735965355308E-4</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="19">
         <f t="shared" ref="F10:H10" si="1">F9/F6</f>
         <v>8.6854943636969906E-5</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
         <v>8.3617912494969473E-5</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="19">
         <f t="shared" si="1"/>
         <v>1.8558361760337273E-4</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="3">
-        <f>AVERAGE(D10:H10)</f>
-        <v>2.27594357425821E-4</v>
-      </c>
+      <c r="I10" s="19">
+        <f>I9/I6</f>
+        <v>6.1153802780597046E-5</v>
+      </c>
+      <c r="J10" s="19"/>
       <c r="K10" s="3">
-        <f>AVERAGE(D10:G10)</f>
-        <v>2.3809704238143307E-4</v>
+        <f>AVERAGE(D10:I10)</f>
+        <v>1.9985426498495031E-4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1579,7 +1583,8 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
@@ -1589,7 +1594,8 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="18"/>
@@ -1599,7 +1605,8 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
@@ -1609,7 +1616,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,14 +1629,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86885CB0-1CF2-4325-8714-797FC68B4567}">
   <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="3" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -1642,7 +1651,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="13"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="13"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -1664,12 +1673,12 @@
       <c r="H4" s="1">
         <v>2020</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1692,8 +1701,9 @@
         <v>923831000</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1719,8 +1729,11 @@
       <c r="H6" s="21">
         <v>531304000</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="21">
+        <v>324211000</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -1730,7 +1743,8 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1752,10 +1766,13 @@
       <c r="H8" s="20">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="14">
-        <f>AVERAGE(C8:H8)</f>
-        <v>1.7999999999999999E-2</v>
+      <c r="I8" s="20">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="14">
+        <f>AVERAGE(C8:I8)</f>
+        <v>2.5333333333333333E-2</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1778,42 +1795,45 @@
       <c r="H9" s="6">
         <v>96620</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="6">
+        <v>65344</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="18">
+      <c r="D10" s="19">
         <f>D9/D6</f>
         <v>2.6364477605840607E-4</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19">
         <f t="shared" ref="E10:H10" si="1">E9/E6</f>
         <v>2.0744168840930468E-4</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="19">
         <f t="shared" si="1"/>
         <v>1.5324865606653116E-4</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
         <v>1.886809009175661E-4</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="19">
         <f t="shared" si="1"/>
         <v>1.818544562058633E-4</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="3">
+      <c r="I10" s="19">
+        <f>I9/I6</f>
+        <v>2.0154775747892575E-4</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="3">
         <f>AVERAGE(D10:H10)</f>
         <v>1.9897409553153427E-4</v>
-      </c>
-      <c r="K10" s="3">
-        <f>AVERAGE(D10:G10)</f>
-        <v>2.0325400536295199E-4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1824,7 +1844,8 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2005,7 +2026,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528616F-4365-4E03-AA99-F5C2282C78C2}">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -2014,7 +2035,7 @@
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" s="8">
         <v>2016</v>
       </c>
@@ -2030,14 +2051,17 @@
       <c r="G1" s="9">
         <v>2020</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2056,10 +2080,13 @@
       <c r="G2" s="7">
         <v>8.18</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7">
+        <v>30.64</v>
+      </c>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -2078,10 +2105,13 @@
       <c r="G3" s="7">
         <v>6.88</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>31.64</v>
+      </c>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -2100,10 +2130,13 @@
       <c r="G4" s="7">
         <v>6.33</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>31.07</v>
+      </c>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2111,9 +2144,10 @@
       <c r="F5" s="12"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="7"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
@@ -2132,10 +2166,13 @@
       <c r="G6" s="7">
         <v>1.29</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>-0.94</v>
+      </c>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
@@ -2159,10 +2196,14 @@
         <f>G2-G6</f>
         <v>6.89</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="12">
+        <f>H2-H6</f>
+        <v>31.580000000000002</v>
+      </c>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
@@ -2186,12 +2227,16 @@
         <f>G7-G4</f>
         <v>0.55999999999999961</v>
       </c>
-      <c r="I8" s="10">
-        <f>AVERAGE(C8:G8)</f>
-        <v>0.44200000000000028</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>H7-H4</f>
+        <v>0.51000000000000156</v>
+      </c>
+      <c r="J8" s="10">
+        <f>AVERAGE(C8:H8)</f>
+        <v>0.45333333333333381</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
@@ -2215,13 +2260,17 @@
         <f>G3-G7</f>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="H9" s="26">
-        <f>AVERAGE(C9:G9)</f>
-        <v>0.17200000000000015</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="12">
+        <f>H3-H7</f>
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="I9" s="26">
+        <f>AVERAGE(C9:H9)</f>
+        <v>0.15333333333333324</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2229,27 +2278,29 @@
       <c r="F10" s="12"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2257,47 +2308,51 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Actiam/Actiam.xlsx
+++ b/Actiam/Actiam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Actiam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="692" documentId="13_ncr:1_{09A8CA3B-498C-48C2-9132-9CBE0DB7D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7E79FAA-6218-48ED-9B62-831FAECBC4DC}"/>
+  <xr:revisionPtr revIDLastSave="739" documentId="13_ncr:1_{09A8CA3B-498C-48C2-9132-9CBE0DB7D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28188EE0-5D41-4D2A-95BC-D70540D71B7C}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="2325" windowWidth="17220" windowHeight="15555" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>TD</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ACTIAM RESPONSIBLE INDEX FUND EQUITY EMERGING MARKETS</t>
-  </si>
-  <si>
-    <t>ACTUELE WEGING PER 31-12-2020</t>
   </si>
   <si>
     <t>Europa</t>
@@ -268,6 +265,18 @@
   </si>
   <si>
     <t>Transactiekosten % 2021</t>
+  </si>
+  <si>
+    <t>ACTUELE WEGING PER 31-12-2021</t>
+  </si>
+  <si>
+    <t>Totaal verwacht</t>
+  </si>
+  <si>
+    <t>Avg - 2020</t>
+  </si>
+  <si>
+    <t>Gem transactiekosten -2020</t>
   </si>
 </sst>
 </file>
@@ -710,9 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -721,8 +728,8 @@
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
@@ -731,27 +738,27 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2021</v>
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
         <v>0.182</v>
@@ -765,17 +772,17 @@
         <v>1.3171507254492655E-4</v>
       </c>
       <c r="G3" s="25">
-        <f>Europa!I10</f>
-        <v>5.9807820092687197E-4</v>
+        <f>Europa!L10</f>
+        <v>5.8643646513904021E-4</v>
       </c>
       <c r="H3" s="4">
         <f>C3*G3</f>
-        <v>1.0885023256869069E-4</v>
+        <v>1.0673143665530532E-4</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
         <v>0.72399999999999998</v>
@@ -789,36 +796,36 @@
         <v>1.4469448784910403E-4</v>
       </c>
       <c r="G4" s="25">
-        <f>US!I10</f>
-        <v>6.1153802780597046E-5</v>
+        <f>US!L10</f>
+        <v>7.7208886304178808E-5</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H5" si="1">C4*G4</f>
-        <v>4.4275353213152261E-5</v>
+        <v>5.5899233684225455E-5</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
         <v>9.4E-2</v>
       </c>
       <c r="D5" s="3">
         <f>Pacific!K10</f>
-        <v>1.9897409553153427E-4</v>
+        <v>1.9940303918943286E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>1.8703564979964221E-5</v>
+        <v>1.8743885683806687E-5</v>
       </c>
       <c r="G5" s="25">
-        <f>Pacific!I10</f>
-        <v>2.0154775747892575E-4</v>
+        <f>Pacific!L10</f>
+        <v>1.8115910482100766E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>1.8945489203019022E-5</v>
+        <v>1.7028955853174721E-5</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -827,16 +834,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="27">
         <f>SUM(E3:E5)</f>
-        <v>2.9511312537399477E-4</v>
-      </c>
-      <c r="H6" s="27">
+        <v>2.9515344607783725E-4</v>
+      </c>
+      <c r="H6" s="3">
         <f>SUM(H3:H5)</f>
-        <v>1.7207107498486197E-4</v>
+        <v>1.796596261927055E-4</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -849,16 +856,16 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3">
         <f>C9+H6</f>
-        <v>9.7207107498486199E-4</v>
+        <v>9.7965962619270546E-4</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -871,16 +878,16 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4">
-        <f>C13+EM!H10</f>
-        <v>2.6063939134071089E-3</v>
+        <f>C13+EM!I10</f>
+        <v>2.5474204655313222E-3</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -890,7 +897,7 @@
     </row>
     <row r="19" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -900,12 +907,12 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -926,7 +933,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -962,9 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DD0CE1-B923-4934-BFFC-058DEB7CF9AB}">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -975,7 +980,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>2016</v>
@@ -996,10 +1001,10 @@
         <v>2021</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -1030,30 +1035,30 @@
         <v>1.2993055555555555E-3</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="28">
         <f>MarketCap!E6</f>
-        <v>2.9511312537399477E-4</v>
+        <v>2.9515344607783725E-4</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="27">
         <f>I3+C5</f>
-        <v>1.5944186809295504E-3</v>
+        <v>1.5944590016333928E-3</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="28">
         <f>'Tracking Difference'!I9/100</f>
@@ -1062,11 +1067,11 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="27">
         <f>C6-C8</f>
-        <v>6.1085347596218087E-5</v>
+        <v>6.1125668300060455E-5</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -1099,22 +1104,293 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE67CDC6-C6F3-42EC-8906-DD829414B144}">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
+        <v>890413000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1209414000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1328520000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1533962000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1786403000</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <f>AVERAGE(C5:D5)</f>
+        <v>1049913500</v>
+      </c>
+      <c r="E6" s="21">
+        <f>AVERAGE(D5:E5)</f>
+        <v>1268967000</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" ref="F6:G6" si="0">AVERAGE(E5:F5)</f>
+        <v>1431241000</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>1660182500</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1568427000</v>
+      </c>
+      <c r="I6" s="21">
+        <v>1057967000</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="F8" s="20">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="14">
+        <f>AVERAGE(C8:I8)</f>
+        <v>0.11306666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21">
+        <v>868210</v>
+      </c>
+      <c r="E9" s="21">
+        <v>827888</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1128048</v>
+      </c>
+      <c r="G9" s="21">
+        <v>619365</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1730916</v>
+      </c>
+      <c r="I9" s="6">
+        <v>632747</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19">
+        <f>D9/D6</f>
+        <v>8.2693479034225202E-4</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" ref="E10:H10" si="1">E9/E6</f>
+        <v>6.5241097680239122E-4</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="1"/>
+        <v>7.8816076398034989E-4</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="1"/>
+        <v>3.7307043050989876E-4</v>
+      </c>
+      <c r="H10" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1035999762819691E-3</v>
+      </c>
+      <c r="I10" s="19">
+        <f>I9/I6</f>
+        <v>5.9807820092687197E-4</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="3">
+        <f>AVERAGE(D10:I10)</f>
+        <v>7.2370918980728882E-4</v>
+      </c>
+      <c r="L10" s="3">
+        <f>AVERAGE(F10:G10,I10)</f>
+        <v>5.8643646513904021E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A931124E-3DC9-45D5-8818-E0B09A390F1B}">
+  <dimension ref="B2:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1125,8 +1401,9 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="13"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -1152,62 +1429,65 @@
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6">
-        <v>890413000</v>
+        <v>798282000</v>
       </c>
       <c r="D5" s="6">
-        <v>1209414000</v>
+        <v>1354484</v>
       </c>
       <c r="E5" s="6">
-        <v>1328520000</v>
+        <v>1773123000</v>
       </c>
       <c r="F5" s="6">
-        <v>1533962000</v>
+        <v>2416414000</v>
       </c>
       <c r="G5" s="6">
-        <v>1786403000</v>
+        <v>3176933000</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21">
         <f>AVERAGE(C5:D5)</f>
-        <v>1049913500</v>
+        <v>399818242</v>
       </c>
       <c r="E6" s="21">
-        <f>AVERAGE(D5:E5)</f>
-        <v>1268967000</v>
+        <f t="shared" ref="E6:G6" si="0">AVERAGE(D5:E5)</f>
+        <v>887238742</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" ref="F6:G6" si="0">AVERAGE(E5:F5)</f>
-        <v>1431241000</v>
+        <f t="shared" si="0"/>
+        <v>2094768500</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="0"/>
-        <v>1660182500</v>
+        <v>2796673500</v>
       </c>
       <c r="H6" s="21">
-        <v>1568427000</v>
-      </c>
-      <c r="I6" s="21">
-        <v>1057967000</v>
+        <v>1895205000</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1427679000</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1218,97 +1498,103 @@
       <c r="J7" s="16"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20">
-        <v>1.89E-2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="20">
-        <v>5.8099999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="F8" s="20">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="G8" s="20">
+        <v>2.35E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>0.27100000000000002</v>
+        <v>0.1794</v>
       </c>
       <c r="I8" s="20">
-        <v>0.27860000000000001</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="J8" s="20"/>
       <c r="K8" s="14">
         <f>AVERAGE(C8:I8)</f>
-        <v>0.11306666666666669</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>4.6633333333333332E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21">
-        <v>868210</v>
+        <v>229171</v>
       </c>
       <c r="E9" s="21">
-        <v>827888</v>
+        <v>185191</v>
       </c>
       <c r="F9" s="21">
-        <v>1128048</v>
+        <v>181941</v>
       </c>
       <c r="G9" s="21">
-        <v>619365</v>
+        <f>64909+168943</f>
+        <v>233852</v>
       </c>
       <c r="H9" s="6">
-        <v>1730916</v>
+        <f>286810+64909</f>
+        <v>351719</v>
       </c>
       <c r="I9" s="6">
-        <v>632747</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>87308</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
         <f>D9/D6</f>
-        <v>8.2693479034225202E-4</v>
+        <v>5.7318795374023985E-4</v>
       </c>
       <c r="E10" s="19">
-        <f t="shared" ref="E10:H10" si="1">E9/E6</f>
-        <v>6.5241097680239122E-4</v>
+        <f>E9/E6</f>
+        <v>2.0872735965355308E-4</v>
       </c>
       <c r="F10" s="19">
-        <f t="shared" si="1"/>
-        <v>7.8816076398034989E-4</v>
+        <f t="shared" ref="F10:H10" si="1">F9/F6</f>
+        <v>8.6854943636969906E-5</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="1"/>
-        <v>3.7307043050989876E-4</v>
+        <v>8.3617912494969473E-5</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="1"/>
-        <v>1.1035999762819691E-3</v>
+        <v>1.8558361760337273E-4</v>
       </c>
       <c r="I10" s="19">
         <f>I9/I6</f>
-        <v>5.9807820092687197E-4</v>
-      </c>
-      <c r="J10" s="18"/>
+        <v>6.1153802780597046E-5</v>
+      </c>
+      <c r="J10" s="19"/>
       <c r="K10" s="3">
         <f>AVERAGE(D10:I10)</f>
-        <v>7.2370918980728882E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1.9985426498495031E-4</v>
+      </c>
+      <c r="L10" s="3">
+        <f>AVERAGE(F10:G10,I10)</f>
+        <v>7.7208886304178808E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -1319,7 +1605,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1330,7 +1616,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -1341,7 +1627,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1352,34 +1638,29 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A931124E-3DC9-45D5-8818-E0B09A390F1B}">
-  <dimension ref="B2:K14"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86885CB0-1CF2-4325-8714-797FC68B4567}">
+  <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="11" width="13.7109375" customWidth="1"/>
+    <col min="3" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1390,8 +1671,9 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="13"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -1417,62 +1699,65 @@
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6">
-        <v>798282000</v>
+        <v>448106000</v>
       </c>
       <c r="D5" s="6">
-        <v>1354484</v>
+        <v>579595000</v>
       </c>
       <c r="E5" s="6">
-        <v>1773123000</v>
+        <v>690950000</v>
       </c>
       <c r="F5" s="6">
-        <v>2416414000</v>
+        <v>762805000</v>
       </c>
       <c r="G5" s="6">
-        <v>3176933000</v>
+        <v>923831000</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21">
         <f>AVERAGE(C5:D5)</f>
-        <v>399818242</v>
+        <v>513850500</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" ref="E6:G6" si="0">AVERAGE(D5:E5)</f>
-        <v>887238742</v>
+        <v>635272500</v>
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>2094768500</v>
+        <v>726877500</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="0"/>
-        <v>2796673500</v>
+        <v>843318000</v>
       </c>
       <c r="H6" s="21">
-        <v>1895205000</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1427679000</v>
+        <v>531304000</v>
+      </c>
+      <c r="I6" s="21">
+        <v>324211000</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1483,7 +1768,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1492,90 +1777,92 @@
         <v>0</v>
       </c>
       <c r="E8" s="20">
-        <v>3.0700000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="20">
-        <v>1.3100000000000001E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="G8" s="20">
-        <v>2.35E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="H8" s="20">
-        <v>0.1794</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="I8" s="20">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="J8" s="20"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="14">
         <f>AVERAGE(C8:I8)</f>
-        <v>4.6633333333333332E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>2.5333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21">
-        <v>229171</v>
+        <v>135474</v>
       </c>
       <c r="E9" s="21">
-        <v>185191</v>
+        <v>131782</v>
       </c>
       <c r="F9" s="21">
-        <v>181941</v>
+        <v>111393</v>
       </c>
       <c r="G9" s="21">
-        <f>64909+168943</f>
-        <v>233852</v>
+        <v>159118</v>
       </c>
       <c r="H9" s="6">
-        <f>286810+64909</f>
-        <v>351719</v>
+        <v>96620</v>
       </c>
       <c r="I9" s="6">
-        <v>87308</v>
-      </c>
-      <c r="J9" s="6"/>
+        <v>65344</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
         <f>D9/D6</f>
-        <v>5.7318795374023985E-4</v>
+        <v>2.6364477605840607E-4</v>
       </c>
       <c r="E10" s="19">
-        <f>E9/E6</f>
-        <v>2.0872735965355308E-4</v>
+        <f t="shared" ref="E10:H10" si="1">E9/E6</f>
+        <v>2.0744168840930468E-4</v>
       </c>
       <c r="F10" s="19">
-        <f t="shared" ref="F10:H10" si="1">F9/F6</f>
-        <v>8.6854943636969906E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.5324865606653116E-4</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="1"/>
-        <v>8.3617912494969473E-5</v>
+        <v>1.886809009175661E-4</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="1"/>
-        <v>1.8558361760337273E-4</v>
+        <v>1.818544562058633E-4</v>
       </c>
       <c r="I10" s="19">
         <f>I9/I6</f>
-        <v>6.1153802780597046E-5</v>
-      </c>
-      <c r="J10" s="19"/>
+        <v>2.0154775747892575E-4</v>
+      </c>
+      <c r="J10" s="18"/>
       <c r="K10" s="3">
         <f>AVERAGE(D10:I10)</f>
-        <v>1.9985426498495031E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1.9940303918943286E-4</v>
+      </c>
+      <c r="L10" s="3">
+        <f>AVERAGE(F10:G10,I10)</f>
+        <v>1.8115910482100766E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -1586,267 +1873,6 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86885CB0-1CF2-4325-8714-797FC68B4567}">
-  <dimension ref="B2:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6">
-        <v>448106000</v>
-      </c>
-      <c r="D5" s="6">
-        <v>579595000</v>
-      </c>
-      <c r="E5" s="6">
-        <v>690950000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>762805000</v>
-      </c>
-      <c r="G5" s="6">
-        <v>923831000</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <f>AVERAGE(C5:D5)</f>
-        <v>513850500</v>
-      </c>
-      <c r="E6" s="21">
-        <f t="shared" ref="E6:G6" si="0">AVERAGE(D5:E5)</f>
-        <v>635272500</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="0"/>
-        <v>726877500</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="0"/>
-        <v>843318000</v>
-      </c>
-      <c r="H6" s="21">
-        <v>531304000</v>
-      </c>
-      <c r="I6" s="21">
-        <v>324211000</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="G8" s="20">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="H8" s="20">
-        <v>6.3399999999999998E-2</v>
-      </c>
-      <c r="I8" s="20">
-        <v>6.2E-2</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="14">
-        <f>AVERAGE(C8:I8)</f>
-        <v>2.5333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21">
-        <v>135474</v>
-      </c>
-      <c r="E9" s="21">
-        <v>131782</v>
-      </c>
-      <c r="F9" s="21">
-        <v>111393</v>
-      </c>
-      <c r="G9" s="21">
-        <v>159118</v>
-      </c>
-      <c r="H9" s="6">
-        <v>96620</v>
-      </c>
-      <c r="I9" s="6">
-        <v>65344</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19">
-        <f>D9/D6</f>
-        <v>2.6364477605840607E-4</v>
-      </c>
-      <c r="E10" s="19">
-        <f t="shared" ref="E10:H10" si="1">E9/E6</f>
-        <v>2.0744168840930468E-4</v>
-      </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
-        <v>1.5324865606653116E-4</v>
-      </c>
-      <c r="G10" s="19">
-        <f t="shared" si="1"/>
-        <v>1.886809009175661E-4</v>
-      </c>
-      <c r="H10" s="19">
-        <f t="shared" si="1"/>
-        <v>1.818544562058633E-4</v>
-      </c>
-      <c r="I10" s="19">
-        <f>I9/I6</f>
-        <v>2.0154775747892575E-4</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="3">
-        <f>AVERAGE(D10:H10)</f>
-        <v>1.9897409553153427E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1855,19 +1881,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D309B1-15E8-4F5E-A9D6-7FC1801B1410}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="3" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1876,9 +1902,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2017</v>
       </c>
@@ -1891,12 +1918,15 @@
       <c r="F4" s="1">
         <v>2020</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1909,11 +1939,16 @@
       <c r="E5" s="6">
         <v>396300000</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="6">
+        <v>471200000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>597400000</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1932,18 +1967,22 @@
       <c r="F6" s="21">
         <v>403434000</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="21">
+        <v>524349000</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="16"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1959,13 +1998,16 @@
       <c r="F8" s="20">
         <v>0.53410000000000002</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="14">
-        <f>AVERAGE(C8:F8)</f>
-        <v>0.45540000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="20">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="14">
+        <f>AVERAGE(C8:G8)</f>
+        <v>0.44740000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1981,10 +2023,13 @@
       <c r="F9" s="6">
         <v>574474</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="6">
+        <v>530393</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -1993,7 +2038,7 @@
         <v>1.2778511557937243E-3</v>
       </c>
       <c r="D10" s="18">
-        <f t="shared" ref="D10:F10" si="2">D9/D6</f>
+        <f t="shared" ref="D10:G10" si="2">D9/D6</f>
         <v>1.0551478416398143E-3</v>
       </c>
       <c r="E10" s="18">
@@ -2004,19 +2049,24 @@
         <f t="shared" si="2"/>
         <v>1.423960300817482E-3</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="3">
-        <f>AVERAGE(C10:F10)</f>
-        <v>1.3063939134071087E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0115266740281759E-3</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="3">
+        <f>AVERAGE(C10:G10)</f>
+        <v>1.2474204655313222E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2028,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528616F-4365-4E03-AA99-F5C2282C78C2}">
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2177,27 +2227,27 @@
         <v>8</v>
       </c>
       <c r="C7" s="12">
-        <f>C2-C6</f>
+        <f t="shared" ref="C7:H7" si="0">C2-C6</f>
         <v>11.280000000000001</v>
       </c>
       <c r="D7" s="12">
-        <f>D2-D6</f>
+        <f t="shared" si="0"/>
         <v>7.7799999999999994</v>
       </c>
       <c r="E7" s="12">
-        <f>E2-E6</f>
+        <f t="shared" si="0"/>
         <v>-3.9</v>
       </c>
       <c r="F7" s="12">
-        <f>F2-F6</f>
+        <f t="shared" si="0"/>
         <v>30.64</v>
       </c>
       <c r="G7" s="12">
-        <f>G2-G6</f>
+        <f t="shared" si="0"/>
         <v>6.89</v>
       </c>
       <c r="H7" s="12">
-        <f>H2-H6</f>
+        <f t="shared" si="0"/>
         <v>31.580000000000002</v>
       </c>
       <c r="I7" s="7"/>
@@ -2208,27 +2258,27 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>C7-C4</f>
+        <f t="shared" ref="C8:H8" si="1">C7-C4</f>
         <v>0.55000000000000071</v>
       </c>
       <c r="D8">
-        <f>D7-D4</f>
+        <f t="shared" si="1"/>
         <v>0.26999999999999957</v>
       </c>
       <c r="E8">
-        <f>E7-E4</f>
+        <f t="shared" si="1"/>
         <v>0.21000000000000041</v>
       </c>
       <c r="F8">
-        <f>F7-F4</f>
+        <f t="shared" si="1"/>
         <v>0.62000000000000099</v>
       </c>
       <c r="G8">
-        <f>G7-G4</f>
+        <f t="shared" si="1"/>
         <v>0.55999999999999961</v>
       </c>
       <c r="H8">
-        <f>H7-H4</f>
+        <f t="shared" si="1"/>
         <v>0.51000000000000156</v>
       </c>
       <c r="J8" s="10">
@@ -2241,27 +2291,27 @@
         <v>2</v>
       </c>
       <c r="C9" s="12">
-        <f>C3-C7</f>
+        <f t="shared" ref="C9:H9" si="2">C3-C7</f>
         <v>0.10999999999999943</v>
       </c>
       <c r="D9" s="12">
-        <f>D3-D7</f>
+        <f t="shared" si="2"/>
         <v>0.32000000000000028</v>
       </c>
       <c r="E9" s="12">
-        <f>E3-E7</f>
+        <f t="shared" si="2"/>
         <v>0.31999999999999984</v>
       </c>
       <c r="F9" s="12">
-        <f>F3-F7</f>
+        <f t="shared" si="2"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="G9" s="12">
-        <f>G3-G7</f>
+        <f t="shared" si="2"/>
         <v>-9.9999999999997868E-3</v>
       </c>
       <c r="H9" s="12">
-        <f>H3-H7</f>
+        <f t="shared" si="2"/>
         <v>5.9999999999998721E-2</v>
       </c>
       <c r="I9" s="26">
